--- a/ExcelRangeToImgForPrint/bin/Debug/templatesExcel/1.xlsx
+++ b/ExcelRangeToImgForPrint/bin/Debug/templatesExcel/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danan\source\repos\ExcelRangeToImgForPrint\ExcelRangeToImgForPrint\bin\Debug\templatesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1518DB4-7C60-4E5A-9DD3-B4A6C1256F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC2B44E-2807-45D9-B505-271A7A8E474E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Поставщик/ Supplier</t>
   </si>
@@ -80,12 +80,15 @@
   <si>
     <t>[номер]</t>
   </si>
+  <si>
+    <t>[шрихкод]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +142,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -245,7 +255,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -256,39 +266,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -316,41 +362,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -685,7 +722,7 @@
   <dimension ref="A6:AO89"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="S58" sqref="S58"/>
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -706,100 +743,100 @@
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1"/>
     <row r="12" spans="1:14" ht="15" customHeight="1">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="21" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="26"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="38"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="38"/>
     </row>
     <row r="17" spans="2:41" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
     </row>
     <row r="18" spans="2:41">
       <c r="B18" s="9"/>
@@ -892,37 +929,37 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="2:41" ht="30.75" customHeight="1">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="13" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="13" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="29"/>
       <c r="L24" s="9"/>
       <c r="M24" s="3"/>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="2:41" ht="15" customHeight="1">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="29"/>
       <c r="L25" s="5"/>
       <c r="M25" s="1"/>
       <c r="N25" s="6"/>
@@ -988,62 +1025,62 @@
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="2:41" ht="15" customHeight="1">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="12"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="20"/>
-      <c r="AN30" s="20"/>
-      <c r="AO30" s="20"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="32"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="31"/>
     </row>
     <row r="31" spans="2:41" ht="15" customHeight="1">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="15"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="20"/>
-      <c r="AL31" s="20"/>
-      <c r="AM31" s="20"/>
-      <c r="AN31" s="20"/>
-      <c r="AO31" s="20"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="29"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
+      <c r="AO31" s="31"/>
     </row>
     <row r="32" spans="2:41" ht="15.75" customHeight="1">
       <c r="B32" s="5"/>
@@ -1059,19 +1096,19 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="6"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="20"/>
-      <c r="AL32" s="20"/>
-      <c r="AM32" s="20"/>
-      <c r="AN32" s="20"/>
-      <c r="AO32" s="20"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="30"/>
+      <c r="AI32" s="30"/>
+      <c r="AJ32" s="30"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="31"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="31"/>
+      <c r="AO32" s="31"/>
     </row>
     <row r="33" spans="2:41" ht="15" customHeight="1">
       <c r="B33" s="5"/>
@@ -1087,19 +1124,19 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="6"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="19"/>
-      <c r="AI33" s="19"/>
-      <c r="AJ33" s="19"/>
-      <c r="AK33" s="20"/>
-      <c r="AL33" s="20"/>
-      <c r="AM33" s="20"/>
-      <c r="AN33" s="20"/>
-      <c r="AO33" s="20"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="30"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
+      <c r="AO33" s="31"/>
     </row>
     <row r="34" spans="2:41">
       <c r="B34" s="5"/>
@@ -1115,19 +1152,19 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="6"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="20"/>
-      <c r="AL34" s="20"/>
-      <c r="AM34" s="20"/>
-      <c r="AN34" s="20"/>
-      <c r="AO34" s="20"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="30"/>
+      <c r="AH34" s="30"/>
+      <c r="AI34" s="30"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
     </row>
     <row r="35" spans="2:41" ht="15.75" thickBot="1">
       <c r="B35" s="7"/>
@@ -1143,36 +1180,38 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="8"/>
-      <c r="AC35" s="19"/>
-      <c r="AD35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="19"/>
-      <c r="AI35" s="19"/>
-      <c r="AJ35" s="19"/>
-      <c r="AK35" s="20"/>
-      <c r="AL35" s="20"/>
-      <c r="AM35" s="20"/>
-      <c r="AN35" s="20"/>
-      <c r="AO35" s="20"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="30"/>
+      <c r="AI35" s="30"/>
+      <c r="AJ35" s="30"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
     </row>
     <row r="36" spans="2:41">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="4"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="43"/>
+      <c r="N36" s="44"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -1188,19 +1227,19 @@
       <c r="AO36" s="1"/>
     </row>
     <row r="37" spans="2:41">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="6"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="47"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -1226,9 +1265,9 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="6"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="47"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -1254,9 +1293,9 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="6"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="47"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
@@ -1282,9 +1321,9 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="6"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="47"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
@@ -1310,9 +1349,9 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="6"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="47"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -1328,60 +1367,60 @@
       <c r="AO41" s="1"/>
     </row>
     <row r="42" spans="2:41">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="6"/>
-      <c r="AC42" s="14"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="14"/>
-      <c r="AG42" s="14"/>
-      <c r="AH42" s="14"/>
-      <c r="AI42" s="14"/>
-      <c r="AJ42" s="14"/>
-      <c r="AK42" s="16"/>
-      <c r="AL42" s="16"/>
-      <c r="AM42" s="16"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="47"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="23"/>
+      <c r="AL42" s="23"/>
+      <c r="AM42" s="23"/>
       <c r="AN42" s="1"/>
       <c r="AO42" s="1"/>
     </row>
     <row r="43" spans="2:41">
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="6"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="16"/>
-      <c r="AL43" s="16"/>
-      <c r="AM43" s="16"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="47"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="22"/>
+      <c r="AI43" s="22"/>
+      <c r="AJ43" s="22"/>
+      <c r="AK43" s="23"/>
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
       <c r="AN43" s="1"/>
       <c r="AO43" s="1"/>
     </row>
@@ -1396,9 +1435,9 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="6"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="47"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -1424,9 +1463,9 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="6"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="47"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -1452,9 +1491,9 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="6"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="47"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -1480,9 +1519,9 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="6"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="47"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -1498,64 +1537,64 @@
       <c r="AO47" s="1"/>
     </row>
     <row r="48" spans="2:41">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="10" t="s">
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="6"/>
-      <c r="AC48" s="14"/>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="14"/>
-      <c r="AF48" s="14"/>
-      <c r="AG48" s="14"/>
-      <c r="AH48" s="14"/>
-      <c r="AI48" s="14"/>
-      <c r="AJ48" s="14"/>
-      <c r="AK48" s="14"/>
-      <c r="AL48" s="14"/>
-      <c r="AM48" s="14"/>
-      <c r="AN48" s="14"/>
-      <c r="AO48" s="14"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="47"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="22"/>
+      <c r="AF48" s="22"/>
+      <c r="AG48" s="22"/>
+      <c r="AH48" s="22"/>
+      <c r="AI48" s="22"/>
+      <c r="AJ48" s="22"/>
+      <c r="AK48" s="22"/>
+      <c r="AL48" s="22"/>
+      <c r="AM48" s="22"/>
+      <c r="AN48" s="22"/>
+      <c r="AO48" s="22"/>
     </row>
     <row r="49" spans="2:41">
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="6"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="14"/>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="14"/>
-      <c r="AI49" s="14"/>
-      <c r="AJ49" s="14"/>
-      <c r="AK49" s="14"/>
-      <c r="AL49" s="14"/>
-      <c r="AM49" s="14"/>
-      <c r="AN49" s="14"/>
-      <c r="AO49" s="14"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="47"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="22"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="22"/>
+      <c r="AK49" s="22"/>
+      <c r="AL49" s="22"/>
+      <c r="AM49" s="22"/>
+      <c r="AN49" s="22"/>
+      <c r="AO49" s="22"/>
     </row>
     <row r="50" spans="2:41" ht="15.75" customHeight="1">
       <c r="B50" s="5"/>
@@ -1568,9 +1607,9 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="6"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="47"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -1596,9 +1635,9 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="6"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="47"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -1624,9 +1663,9 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="6"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="47"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -1652,9 +1691,9 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="8"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="6"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="47"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -1670,60 +1709,60 @@
       <c r="AO53" s="1"/>
     </row>
     <row r="54" spans="2:41">
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="6"/>
-      <c r="AC54" s="14"/>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="14"/>
-      <c r="AF54" s="14"/>
-      <c r="AG54" s="14"/>
-      <c r="AH54" s="14"/>
-      <c r="AI54" s="14"/>
-      <c r="AJ54" s="14"/>
-      <c r="AK54" s="14"/>
-      <c r="AL54" s="14"/>
-      <c r="AM54" s="14"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="47"/>
+      <c r="AC54" s="22"/>
+      <c r="AD54" s="22"/>
+      <c r="AE54" s="22"/>
+      <c r="AF54" s="22"/>
+      <c r="AG54" s="22"/>
+      <c r="AH54" s="22"/>
+      <c r="AI54" s="22"/>
+      <c r="AJ54" s="22"/>
+      <c r="AK54" s="22"/>
+      <c r="AL54" s="22"/>
+      <c r="AM54" s="22"/>
       <c r="AN54" s="1"/>
       <c r="AO54" s="1"/>
     </row>
     <row r="55" spans="2:41">
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="6"/>
-      <c r="AC55" s="14"/>
-      <c r="AD55" s="14"/>
-      <c r="AE55" s="14"/>
-      <c r="AF55" s="14"/>
-      <c r="AG55" s="14"/>
-      <c r="AH55" s="14"/>
-      <c r="AI55" s="14"/>
-      <c r="AJ55" s="14"/>
-      <c r="AK55" s="14"/>
-      <c r="AL55" s="14"/>
-      <c r="AM55" s="14"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="47"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="22"/>
+      <c r="AI55" s="22"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="22"/>
+      <c r="AL55" s="22"/>
+      <c r="AM55" s="22"/>
       <c r="AN55" s="1"/>
       <c r="AO55" s="1"/>
     </row>
@@ -1738,9 +1777,9 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="6"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="47"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -1766,9 +1805,9 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="6"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="47"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -1794,9 +1833,9 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="6"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="47"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -1822,9 +1861,9 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="8"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="6"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="47"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -1850,20 +1889,20 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="6"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="6"/>
-      <c r="AC60" s="14"/>
-      <c r="AD60" s="14"/>
-      <c r="AE60" s="14"/>
-      <c r="AF60" s="14"/>
-      <c r="AG60" s="14"/>
-      <c r="AH60" s="14"/>
-      <c r="AI60" s="14"/>
-      <c r="AJ60" s="14"/>
-      <c r="AK60" s="14"/>
-      <c r="AL60" s="14"/>
-      <c r="AM60" s="14"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="47"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="22"/>
+      <c r="AF60" s="22"/>
+      <c r="AG60" s="22"/>
+      <c r="AH60" s="22"/>
+      <c r="AI60" s="22"/>
+      <c r="AJ60" s="22"/>
+      <c r="AK60" s="22"/>
+      <c r="AL60" s="22"/>
+      <c r="AM60" s="22"/>
       <c r="AN60" s="1"/>
       <c r="AO60" s="1"/>
     </row>
@@ -1878,41 +1917,41 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="8"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="6"/>
-      <c r="AC61" s="14"/>
-      <c r="AD61" s="14"/>
-      <c r="AE61" s="14"/>
-      <c r="AF61" s="14"/>
-      <c r="AG61" s="14"/>
-      <c r="AH61" s="14"/>
-      <c r="AI61" s="14"/>
-      <c r="AJ61" s="14"/>
-      <c r="AK61" s="14"/>
-      <c r="AL61" s="14"/>
-      <c r="AM61" s="14"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="47"/>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="22"/>
+      <c r="AE61" s="22"/>
+      <c r="AF61" s="22"/>
+      <c r="AG61" s="22"/>
+      <c r="AH61" s="22"/>
+      <c r="AI61" s="22"/>
+      <c r="AJ61" s="22"/>
+      <c r="AK61" s="22"/>
+      <c r="AL61" s="22"/>
+      <c r="AM61" s="22"/>
       <c r="AN61" s="1"/>
       <c r="AO61" s="1"/>
     </row>
     <row r="62" spans="2:41" ht="15.75" customHeight="1">
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="10" t="s">
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="6"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="47"/>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
@@ -1928,19 +1967,19 @@
       <c r="AO62" s="1"/>
     </row>
     <row r="63" spans="2:41" ht="15" customHeight="1">
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="6"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="47"/>
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
@@ -1966,9 +2005,9 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="6"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="6"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="47"/>
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
@@ -1994,9 +2033,9 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="6"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="6"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="47"/>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
@@ -2022,20 +2061,20 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="6"/>
-      <c r="AC66" s="14"/>
-      <c r="AD66" s="14"/>
-      <c r="AE66" s="14"/>
-      <c r="AF66" s="14"/>
-      <c r="AG66" s="14"/>
-      <c r="AH66" s="14"/>
-      <c r="AI66" s="14"/>
-      <c r="AJ66" s="14"/>
-      <c r="AK66" s="14"/>
-      <c r="AL66" s="14"/>
-      <c r="AM66" s="14"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="47"/>
+      <c r="AC66" s="22"/>
+      <c r="AD66" s="22"/>
+      <c r="AE66" s="22"/>
+      <c r="AF66" s="22"/>
+      <c r="AG66" s="22"/>
+      <c r="AH66" s="22"/>
+      <c r="AI66" s="22"/>
+      <c r="AJ66" s="22"/>
+      <c r="AK66" s="22"/>
+      <c r="AL66" s="22"/>
+      <c r="AM66" s="22"/>
       <c r="AN66" s="1"/>
       <c r="AO66" s="1"/>
     </row>
@@ -2050,41 +2089,41 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="8"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="6"/>
-      <c r="AC67" s="14"/>
-      <c r="AD67" s="14"/>
-      <c r="AE67" s="14"/>
-      <c r="AF67" s="14"/>
-      <c r="AG67" s="14"/>
-      <c r="AH67" s="14"/>
-      <c r="AI67" s="14"/>
-      <c r="AJ67" s="14"/>
-      <c r="AK67" s="14"/>
-      <c r="AL67" s="14"/>
-      <c r="AM67" s="14"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="47"/>
+      <c r="AC67" s="22"/>
+      <c r="AD67" s="22"/>
+      <c r="AE67" s="22"/>
+      <c r="AF67" s="22"/>
+      <c r="AG67" s="22"/>
+      <c r="AH67" s="22"/>
+      <c r="AI67" s="22"/>
+      <c r="AJ67" s="22"/>
+      <c r="AK67" s="22"/>
+      <c r="AL67" s="22"/>
+      <c r="AM67" s="22"/>
       <c r="AN67" s="1"/>
       <c r="AO67" s="1"/>
     </row>
     <row r="68" spans="2:41">
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="10" t="s">
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="6"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="47"/>
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
@@ -2100,19 +2139,19 @@
       <c r="AO68" s="1"/>
     </row>
     <row r="69" spans="2:41">
-      <c r="B69" s="13"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="6"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="47"/>
       <c r="AC69" s="1"/>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
@@ -2128,23 +2167,23 @@
       <c r="AO69" s="1"/>
     </row>
     <row r="70" spans="2:41">
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="36" t="s">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="6"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="47"/>
       <c r="AC70" s="1"/>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
@@ -2160,19 +2199,19 @@
       <c r="AO70" s="1"/>
     </row>
     <row r="71" spans="2:41">
-      <c r="B71" s="30"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="6"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="47"/>
       <c r="AC71" s="1"/>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
@@ -2188,58 +2227,58 @@
       <c r="AO71" s="1"/>
     </row>
     <row r="72" spans="2:41">
-      <c r="B72" s="30"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="6"/>
-      <c r="AC72" s="14"/>
-      <c r="AD72" s="14"/>
-      <c r="AE72" s="14"/>
-      <c r="AF72" s="14"/>
-      <c r="AG72" s="14"/>
-      <c r="AH72" s="14"/>
-      <c r="AI72" s="14"/>
-      <c r="AJ72" s="14"/>
-      <c r="AK72" s="14"/>
-      <c r="AL72" s="14"/>
-      <c r="AM72" s="14"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="47"/>
+      <c r="AC72" s="22"/>
+      <c r="AD72" s="22"/>
+      <c r="AE72" s="22"/>
+      <c r="AF72" s="22"/>
+      <c r="AG72" s="22"/>
+      <c r="AH72" s="22"/>
+      <c r="AI72" s="22"/>
+      <c r="AJ72" s="22"/>
+      <c r="AK72" s="22"/>
+      <c r="AL72" s="22"/>
+      <c r="AM72" s="22"/>
       <c r="AN72" s="1"/>
       <c r="AO72" s="1"/>
     </row>
     <row r="73" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B73" s="33"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="8"/>
-      <c r="AC73" s="14"/>
-      <c r="AD73" s="14"/>
-      <c r="AE73" s="14"/>
-      <c r="AF73" s="14"/>
-      <c r="AG73" s="14"/>
-      <c r="AH73" s="14"/>
-      <c r="AI73" s="14"/>
-      <c r="AJ73" s="14"/>
-      <c r="AK73" s="14"/>
-      <c r="AL73" s="14"/>
-      <c r="AM73" s="14"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="48"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="50"/>
+      <c r="AC73" s="22"/>
+      <c r="AD73" s="22"/>
+      <c r="AE73" s="22"/>
+      <c r="AF73" s="22"/>
+      <c r="AG73" s="22"/>
+      <c r="AH73" s="22"/>
+      <c r="AI73" s="22"/>
+      <c r="AJ73" s="22"/>
+      <c r="AK73" s="22"/>
+      <c r="AL73" s="22"/>
+      <c r="AM73" s="22"/>
       <c r="AN73" s="1"/>
       <c r="AO73" s="1"/>
     </row>
@@ -2364,32 +2403,32 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
-      <c r="AC78" s="14"/>
-      <c r="AD78" s="14"/>
-      <c r="AE78" s="14"/>
-      <c r="AF78" s="14"/>
-      <c r="AG78" s="14"/>
-      <c r="AH78" s="14"/>
-      <c r="AI78" s="14"/>
-      <c r="AJ78" s="14"/>
-      <c r="AK78" s="14"/>
-      <c r="AL78" s="14"/>
-      <c r="AM78" s="14"/>
+      <c r="AC78" s="22"/>
+      <c r="AD78" s="22"/>
+      <c r="AE78" s="22"/>
+      <c r="AF78" s="22"/>
+      <c r="AG78" s="22"/>
+      <c r="AH78" s="22"/>
+      <c r="AI78" s="22"/>
+      <c r="AJ78" s="22"/>
+      <c r="AK78" s="22"/>
+      <c r="AL78" s="22"/>
+      <c r="AM78" s="22"/>
       <c r="AN78" s="1"/>
       <c r="AO78" s="1"/>
     </row>
     <row r="79" spans="2:41">
-      <c r="AC79" s="14"/>
-      <c r="AD79" s="14"/>
-      <c r="AE79" s="14"/>
-      <c r="AF79" s="14"/>
-      <c r="AG79" s="14"/>
-      <c r="AH79" s="14"/>
-      <c r="AI79" s="14"/>
-      <c r="AJ79" s="14"/>
-      <c r="AK79" s="14"/>
-      <c r="AL79" s="14"/>
-      <c r="AM79" s="14"/>
+      <c r="AC79" s="22"/>
+      <c r="AD79" s="22"/>
+      <c r="AE79" s="22"/>
+      <c r="AF79" s="22"/>
+      <c r="AG79" s="22"/>
+      <c r="AH79" s="22"/>
+      <c r="AI79" s="22"/>
+      <c r="AJ79" s="22"/>
+      <c r="AK79" s="22"/>
+      <c r="AL79" s="22"/>
+      <c r="AM79" s="22"/>
       <c r="AN79" s="1"/>
       <c r="AO79" s="1"/>
     </row>
@@ -2454,32 +2493,32 @@
       <c r="AO83" s="1"/>
     </row>
     <row r="84" spans="29:41">
-      <c r="AC84" s="14"/>
-      <c r="AD84" s="14"/>
-      <c r="AE84" s="14"/>
-      <c r="AF84" s="14"/>
-      <c r="AG84" s="14"/>
-      <c r="AH84" s="14"/>
-      <c r="AI84" s="14"/>
-      <c r="AJ84" s="14"/>
-      <c r="AK84" s="14"/>
-      <c r="AL84" s="14"/>
-      <c r="AM84" s="14"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="22"/>
+      <c r="AE84" s="22"/>
+      <c r="AF84" s="22"/>
+      <c r="AG84" s="22"/>
+      <c r="AH84" s="22"/>
+      <c r="AI84" s="22"/>
+      <c r="AJ84" s="22"/>
+      <c r="AK84" s="22"/>
+      <c r="AL84" s="22"/>
+      <c r="AM84" s="22"/>
       <c r="AN84" s="1"/>
       <c r="AO84" s="1"/>
     </row>
     <row r="85" spans="29:41">
-      <c r="AC85" s="14"/>
-      <c r="AD85" s="14"/>
-      <c r="AE85" s="14"/>
-      <c r="AF85" s="14"/>
-      <c r="AG85" s="14"/>
-      <c r="AH85" s="14"/>
-      <c r="AI85" s="14"/>
-      <c r="AJ85" s="14"/>
-      <c r="AK85" s="14"/>
-      <c r="AL85" s="14"/>
-      <c r="AM85" s="14"/>
+      <c r="AC85" s="22"/>
+      <c r="AD85" s="22"/>
+      <c r="AE85" s="22"/>
+      <c r="AF85" s="22"/>
+      <c r="AG85" s="22"/>
+      <c r="AH85" s="22"/>
+      <c r="AI85" s="22"/>
+      <c r="AJ85" s="22"/>
+      <c r="AK85" s="22"/>
+      <c r="AL85" s="22"/>
+      <c r="AM85" s="22"/>
       <c r="AN85" s="1"/>
       <c r="AO85" s="1"/>
     </row>
@@ -2544,32 +2583,7 @@
       <c r="AO89" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B70:F73"/>
-    <mergeCell ref="G70:K73"/>
-    <mergeCell ref="AC48:AO49"/>
-    <mergeCell ref="AC54:AM55"/>
-    <mergeCell ref="AC60:AM61"/>
-    <mergeCell ref="AC66:AH67"/>
-    <mergeCell ref="AI66:AM67"/>
-    <mergeCell ref="AC72:AM73"/>
-    <mergeCell ref="AC78:AH79"/>
-    <mergeCell ref="AC84:AH85"/>
-    <mergeCell ref="AI78:AM79"/>
-    <mergeCell ref="AI84:AM85"/>
-    <mergeCell ref="AK42:AM43"/>
-    <mergeCell ref="AG42:AJ43"/>
-    <mergeCell ref="AC42:AF43"/>
-    <mergeCell ref="B12:I13"/>
-    <mergeCell ref="B14:I17"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="AC30:AJ31"/>
-    <mergeCell ref="AC32:AJ35"/>
-    <mergeCell ref="AK30:AO35"/>
-    <mergeCell ref="B30:N31"/>
-    <mergeCell ref="J12:N17"/>
-    <mergeCell ref="H24:K25"/>
+  <mergeCells count="35">
     <mergeCell ref="B36:K37"/>
     <mergeCell ref="B42:K43"/>
     <mergeCell ref="G68:K69"/>
@@ -2579,6 +2593,32 @@
     <mergeCell ref="B54:K55"/>
     <mergeCell ref="B62:F63"/>
     <mergeCell ref="G62:K63"/>
+    <mergeCell ref="AC32:AJ35"/>
+    <mergeCell ref="AK30:AO35"/>
+    <mergeCell ref="B30:N31"/>
+    <mergeCell ref="J12:N17"/>
+    <mergeCell ref="H24:K25"/>
+    <mergeCell ref="B12:I13"/>
+    <mergeCell ref="B14:I17"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="AC30:AJ31"/>
+    <mergeCell ref="AC78:AH79"/>
+    <mergeCell ref="AC84:AH85"/>
+    <mergeCell ref="AI78:AM79"/>
+    <mergeCell ref="AI84:AM85"/>
+    <mergeCell ref="AK42:AM43"/>
+    <mergeCell ref="AG42:AJ43"/>
+    <mergeCell ref="AC42:AF43"/>
+    <mergeCell ref="B70:F73"/>
+    <mergeCell ref="G70:K73"/>
+    <mergeCell ref="AC48:AO49"/>
+    <mergeCell ref="AC54:AM55"/>
+    <mergeCell ref="AC60:AM61"/>
+    <mergeCell ref="AC66:AH67"/>
+    <mergeCell ref="AI66:AM67"/>
+    <mergeCell ref="AC72:AM73"/>
+    <mergeCell ref="L36:N73"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="144" orientation="portrait" r:id="rId1"/>
